--- a/Thông tin thành viên các nhóm dự án Nhóm 2.xlsx
+++ b/Thông tin thành viên các nhóm dự án Nhóm 2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Lớp</t>
   </si>
@@ -101,7 +101,7 @@
     <t>VA001833</t>
   </si>
   <si>
-    <t>Việt Anh</t>
+    <t>Bùi Việt Anh</t>
   </si>
   <si>
     <t>0961184615</t>
@@ -113,27 +113,23 @@
     <t>Leader</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Link ggmeet: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t>https://meet.google.com/ocy-fjtk-rsi</t>
-    </r>
+    <t>VA001570</t>
+  </si>
+  <si>
+    <t>Huỳnh Đặng Thiên Toàn</t>
+  </si>
+  <si>
+    <t>0818163974</t>
+  </si>
+  <si>
+    <t>hdthientoan@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -192,7 +188,14 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="11.0"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -258,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -332,24 +335,39 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -581,7 +599,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="6.63"/>
     <col customWidth="1" min="2" max="2" width="15.38"/>
-    <col customWidth="1" min="3" max="3" width="17.88"/>
+    <col customWidth="1" min="3" max="3" width="20.0"/>
     <col customWidth="1" min="4" max="4" width="11.13"/>
     <col customWidth="1" min="5" max="5" width="25.63"/>
     <col customWidth="1" min="6" max="6" width="14.63"/>
@@ -852,14 +870,30 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="24">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -873,14 +907,14 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -894,14 +928,14 @@
       <c r="S10" s="3"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -915,14 +949,14 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -936,14 +970,14 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -957,14 +991,14 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -999,14 +1033,14 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="29"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1020,14 +1054,14 @@
       <c r="S16" s="3"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="29"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1041,9 +1075,7 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="30" t="s">
-        <v>31</v>
-      </c>
+      <c r="A18" s="35"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
@@ -21686,7 +21718,6 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E6"/>
     <hyperlink r:id="rId2" ref="E8"/>
-    <hyperlink r:id="rId3" ref="A18"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -21694,6 +21725,6 @@
   <headerFooter>
     <oddFooter>&amp;LCMC.RDC/TrainingDeliveryManagement&amp;CInternal&amp;R&amp;P/</oddFooter>
   </headerFooter>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Thông tin thành viên các nhóm dự án Nhóm 2.xlsx
+++ b/Thông tin thành viên các nhóm dự án Nhóm 2.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rtc7Xxyb4R/sBa0MTcc0g/nq23GSSVIWnFuhGVRQPIk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ARm87r6InWqjKZbFLSN306+w//yABONZKFtmkvzR6Bs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Lớp</t>
   </si>
@@ -80,19 +80,28 @@
     <t>alka.asura@gmail.com</t>
   </si>
   <si>
-    <t>VA001815</t>
+    <t>VA001570</t>
   </si>
   <si>
-    <t>Hoàng Thanh Lâm</t>
+    <t>Huỳnh Đặng Thiên Toàn</t>
   </si>
   <si>
-    <t>0353692127</t>
+    <t>0818163974</t>
   </si>
   <si>
-    <t>thanhlamuit2020@gmail.com</t>
+    <t>hdthientoan@gmail.com</t>
   </si>
   <si>
-    <t>Secretary</t>
+    <t>VA001688</t>
+  </si>
+  <si>
+    <t>Lê Văn Chính</t>
+  </si>
+  <si>
+    <t>0975293924</t>
+  </si>
+  <si>
+    <t>levanchinh400@gmail.com</t>
   </si>
   <si>
     <t>Back-end</t>
@@ -110,19 +119,25 @@
     <t>supercoolanha@gmail.com</t>
   </si>
   <si>
-    <t>Leader</t>
+    <t>Leader, Secretary</t>
   </si>
   <si>
-    <t>VA001570</t>
+    <t>VA001545</t>
   </si>
   <si>
-    <t>Huỳnh Đặng Thiên Toàn</t>
+    <t>Lê Hoàng</t>
   </si>
   <si>
-    <t>0818163974</t>
+    <t>0965768529</t>
   </si>
   <si>
-    <t>hdthientoan@gmail.com</t>
+    <t>hoanggg322004@gmail.com</t>
+  </si>
+  <si>
+    <t>VA001815</t>
+  </si>
+  <si>
+    <t>Trịnh Văn Chính</t>
   </si>
 </sst>
 </file>
@@ -170,14 +185,13 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
       <sz val="11.0"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -193,9 +207,10 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="10"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -261,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -278,7 +293,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
@@ -298,59 +313,74 @@
     <xf borderId="3" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -358,18 +388,16 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -701,7 +729,7 @@
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="7"/>
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
@@ -722,28 +750,28 @@
       <c r="AA4" s="3"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>1.0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>2.0</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="3"/>
@@ -759,28 +787,28 @@
       <c r="S5" s="3"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>2.0</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>2.0</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="3"/>
@@ -796,29 +824,29 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="13">
+      <c r="A7" s="19">
         <v>3.0</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="23">
         <v>2.0</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>24</v>
+      <c r="G7" s="23" t="s">
+        <v>14</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>25</v>
+      <c r="H7" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -833,29 +861,29 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="13">
+      <c r="A8" s="19">
         <v>4.0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="E8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>2.0</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>30</v>
+      <c r="G8" s="28" t="s">
+        <v>14</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>25</v>
+      <c r="H8" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -870,29 +898,29 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="24">
+      <c r="A9" s="19">
         <v>5.0</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="E9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="28">
+      <c r="F9" s="17">
         <v>2.0</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>15</v>
+      <c r="H9" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -907,14 +935,30 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="A10" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="33">
+        <v>2.0</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -928,14 +972,26 @@
       <c r="S10" s="3"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="A11" s="19">
+        <v>7.0</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="33">
+        <v>2.0</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -949,14 +1005,14 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -970,14 +1026,14 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -991,14 +1047,14 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1033,14 +1089,14 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="3"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1054,14 +1110,14 @@
       <c r="S16" s="3"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="3"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1075,7 +1131,7 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="35"/>
+      <c r="A18" s="40"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
@@ -21710,14 +21766,14 @@
       <formula>#REF!="Out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6 A8 A10 A12 A14">
+  <conditionalFormatting sqref="A6 A9:A10 A12 A14">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!="Out"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E6"/>
-    <hyperlink r:id="rId2" ref="E8"/>
+    <hyperlink r:id="rId2" ref="E9"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Thông tin thành viên các nhóm dự án Nhóm 2.xlsx
+++ b/Thông tin thành viên các nhóm dự án Nhóm 2.xlsx
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -176,12 +176,6 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color theme="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -276,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -332,7 +326,7 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -364,13 +358,10 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -379,7 +370,7 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -388,16 +379,16 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -910,7 +901,7 @@
       <c r="D9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="17">
@@ -941,19 +932,19 @@
       <c r="B10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <v>2.0</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="17" t="s">
@@ -978,15 +969,15 @@
       <c r="B11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="21"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="33">
+      <c r="E11" s="33"/>
+      <c r="F11" s="32">
         <v>2.0</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="32" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="23" t="s">
@@ -1007,12 +998,12 @@
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1028,12 +1019,12 @@
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1049,12 +1040,12 @@
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1093,10 +1084,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="3"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1114,10 +1105,10 @@
       <c r="B17" s="7"/>
       <c r="C17" s="3"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1131,7 +1122,7 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
